--- a/wet wipe calc.xlsx
+++ b/wet wipe calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFCE46A6-CC22-4C8C-853E-8FEC4164C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D84173-99B0-4AD0-AC13-812BE8A4CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="0" windowWidth="14685" windowHeight="17385" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>mass</t>
   </si>
@@ -86,6 +86,30 @@
   </si>
   <si>
     <t>pack. pr. wipe</t>
+  </si>
+  <si>
+    <t>avoided</t>
+  </si>
+  <si>
+    <t>elec.</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>unit pr kg</t>
+  </si>
+  <si>
+    <t>treatment of waste textile, soiled, municipal incineration with fly ash extraction</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>elec</t>
   </si>
 </sst>
 </file>
@@ -346,13 +370,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -484,27 +512,83 @@
         <v>5.4320000000000002E-3</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-0.49508999999999997</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-3.5777999999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <f>B19*$B$2*2</f>
+        <v>-9.9018000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <f>B20*$B$2*2</f>
+        <v>-7.1555999999999998E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>